--- a/sales.xlsx
+++ b/sales.xlsx
@@ -1,25 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
-  <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radek\Documents\comarch\pythonProject1\venv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radek\PycharmProjects\pythonProject1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{690AADB7-0B42-4142-B33C-D8D9F72C1A9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5BC8075-6040-4471-B4FA-B50395A38FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3015" yWindow="-14805" windowWidth="21600" windowHeight="11430"/>
+    <workbookView xWindow="3015" yWindow="-14805" windowWidth="21600" windowHeight="11430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr/>
-    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -37,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Sales Date</t>
   </si>
@@ -63,7 +60,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -123,17 +120,17 @@
   </fills>
   <borders count="5">
     <border>
-      <start/>
-      <end/>
+      <left/>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <start/>
-      <end style="medium">
-        <color rgb="FF000000"/>
-      </end>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
       <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
@@ -141,12 +138,12 @@
       <diagonal/>
     </border>
     <border>
-      <start style="medium">
-        <color rgb="FF000000"/>
-      </start>
-      <end style="medium">
-        <color rgb="FF000000"/>
-      </end>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
       <top style="medium">
         <color rgb="FFE6E6E6"/>
       </top>
@@ -156,10 +153,10 @@
       <diagonal/>
     </border>
     <border>
-      <start/>
-      <end style="medium">
-        <color rgb="FF000000"/>
-      </end>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
       <top style="medium">
         <color rgb="FFE6E6E6"/>
       </top>
@@ -169,12 +166,12 @@
       <diagonal/>
     </border>
     <border>
-      <start style="medium">
-        <color rgb="FF000000"/>
-      </start>
-      <end style="medium">
-        <color rgb="FF000000"/>
-      </end>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
       <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
@@ -229,7 +226,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
     <a:clrScheme name="Pakiet Office">
       <a:dk1>
@@ -382,25 +379,25 @@
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0%">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110%"/>
-                <a:satMod val="105%"/>
-                <a:tint val="67%"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50%">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105%"/>
-                <a:satMod val="103%"/>
-                <a:tint val="73%"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100%">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105%"/>
-                <a:satMod val="109%"/>
-                <a:tint val="81%"/>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -408,25 +405,25 @@
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0%">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103%"/>
-                <a:lumMod val="102%"/>
-                <a:tint val="94%"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50%">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110%"/>
-                <a:lumMod val="100%"/>
-                <a:shade val="100%"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100%">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99%"/>
-                <a:satMod val="120%"/>
-                <a:shade val="78%"/>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -439,21 +436,21 @@
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800%"/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800%"/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800%"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -467,7 +464,7 @@
           <a:effectLst>
             <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63%"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -479,32 +476,32 @@
         </a:solidFill>
         <a:solidFill>
           <a:schemeClr val="phClr">
-            <a:tint val="95%"/>
-            <a:satMod val="170%"/>
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0%">
-              <a:schemeClr val="phClr">
-                <a:tint val="93%"/>
-                <a:satMod val="150%"/>
-                <a:shade val="98%"/>
-                <a:lumMod val="102%"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50%">
-              <a:schemeClr val="phClr">
-                <a:tint val="98%"/>
-                <a:satMod val="130%"/>
-                <a:shade val="90%"/>
-                <a:lumMod val="103%"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100%">
-              <a:schemeClr val="phClr">
-                <a:shade val="63%"/>
-                <a:satMod val="120%"/>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -524,17 +521,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -549,8 +547,8 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="d">
-        <v>2018-05-12</v>
+      <c r="A2" s="6">
+        <v>43232</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -560,8 +558,8 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="d">
-        <v>2019-12-06</v>
+      <c r="A3" s="7">
+        <v>43805</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
@@ -571,8 +569,8 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="d">
-        <v>2020-08-09</v>
+      <c r="A4" s="6">
+        <v>44052</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -582,8 +580,8 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="d">
-        <v>2021-04-07</v>
+      <c r="A5" s="8">
+        <v>44293</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>6</v>
